--- a/Assets/06.Table/CommonEventAttend.xlsx
+++ b/Assets/06.Table/CommonEventAttend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86540F7-1F95-4079-93DE-1FCFD83A3BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF047EE-9DD8-4BBC-A3C9-63873FCD96C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28620" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonEventAttend" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,13 +520,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>70000000000</v>
+        <v>80000000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -560,13 +560,13 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -580,13 +580,13 @@
         <v>9010</v>
       </c>
       <c r="D5">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E5">
         <v>9010</v>
       </c>
       <c r="F5">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -600,13 +600,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>70000000000</v>
+        <v>80000000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -640,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>14</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,13 +660,13 @@
         <v>9010</v>
       </c>
       <c r="D9">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E9">
         <v>9010</v>
       </c>
       <c r="F9">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,13 +680,13 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>70000000000</v>
+        <v>80000000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,13 +720,13 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>14</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,13 +740,13 @@
         <v>9010</v>
       </c>
       <c r="D13">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E13">
         <v>9010</v>
       </c>
       <c r="F13">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>70000000000</v>
+        <v>80000000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,13 +800,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,13 +820,13 @@
         <v>9010</v>
       </c>
       <c r="D17">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E17">
         <v>9010</v>
       </c>
       <c r="F17">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,13 +840,13 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>30000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>70000000000</v>
+        <v>80000000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,13 +880,13 @@
         <v>14</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>14</v>
       </c>
       <c r="F20">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,13 +900,13 @@
         <v>9010</v>
       </c>
       <c r="D21">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E21">
         <v>9010</v>
       </c>
       <c r="F21">
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -973,18 +973,18 @@
       </c>
       <c r="D4" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C4,CommonEventAttend!D:D)</f>
-        <v>150000000000</v>
+        <v>200000000000</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E4,CommonEventAttend!F:F)</f>
-        <v>350000000000</v>
+        <v>400000000000</v>
       </c>
       <c r="G4" s="3">
         <f>SUM(D4,F4)</f>
-        <v>500000000000</v>
+        <v>600000000000</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -1019,18 +1019,18 @@
       </c>
       <c r="D6" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C6,CommonEventAttend!D:D)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E6,CommonEventAttend!F:F)</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -1042,18 +1042,18 @@
       </c>
       <c r="D7" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C7,CommonEventAttend!D:D)</f>
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="E7">
         <v>9010</v>
       </c>
       <c r="F7" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E7,CommonEventAttend!F:F)</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>250000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/CommonEventAttend.xlsx
+++ b/Assets/06.Table/CommonEventAttend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF047EE-9DD8-4BBC-A3C9-63873FCD96C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED728EE-5E71-4BE5-8DF9-C14C3E7341F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonEventAttend" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,22 @@
   </si>
   <si>
     <t>유료 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련의 방 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +492,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,16 +533,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="D2">
-        <v>40000000000</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="F2">
-        <v>80000000000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -537,16 +553,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="D3">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="F3">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,16 +573,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -577,16 +593,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="D5">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="F5">
-        <v>60000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,16 +613,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="D6">
-        <v>40000000000</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="F6">
-        <v>80000000000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -617,16 +633,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="D7">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="F7">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -637,16 +653,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="F8">
-        <v>400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -657,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="D9">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="F9">
-        <v>60000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,16 +693,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="D10">
-        <v>40000000000</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="F10">
-        <v>80000000000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,16 +713,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="D11">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="F11">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,16 +733,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="D12">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="F12">
-        <v>400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,16 +753,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="D13">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="F13">
-        <v>60000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,16 +773,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="D14">
-        <v>40000000000</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="F14">
-        <v>80000000000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="D15">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="F15">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,16 +813,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="F16">
-        <v>400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,16 +833,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="D17">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="F17">
-        <v>60000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -837,16 +853,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="D18">
-        <v>40000000000</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>9053</v>
       </c>
       <c r="F18">
-        <v>80000000000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,16 +873,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="D19">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="F19">
-        <v>150000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -877,16 +893,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>9063</v>
       </c>
       <c r="F20">
-        <v>400</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -897,16 +913,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="D21">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="F21">
-        <v>60000</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -918,15 +934,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAA8C00-C0E8-46A5-A651-96172375E961}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
@@ -973,18 +989,18 @@
       </c>
       <c r="D4" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C4,CommonEventAttend!D:D)</f>
-        <v>200000000000</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E4,CommonEventAttend!F:F)</f>
-        <v>400000000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f>SUM(D4,F4)</f>
-        <v>600000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -996,18 +1012,18 @@
       </c>
       <c r="D5" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C5,CommonEventAttend!D:D)</f>
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E5,CommonEventAttend!F:F)</f>
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G7" si="0">SUM(D5,F5)</f>
-        <v>1000000</v>
+        <f t="shared" ref="G5:G11" si="0">SUM(D5,F5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -1019,18 +1035,18 @@
       </c>
       <c r="D6" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C6,CommonEventAttend!D:D)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E6,CommonEventAttend!F:F)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -1042,28 +1058,111 @@
       </c>
       <c r="D7" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C7,CommonEventAttend!D:D)</f>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>9010</v>
       </c>
       <c r="F7" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E7,CommonEventAttend!F:F)</f>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>9053</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUMIF(CommonEventAttend!C:C,balance!C8,CommonEventAttend!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>9053</v>
+      </c>
+      <c r="F8" s="3">
+        <f>SUMIF(CommonEventAttend!E:E,balance!E8,CommonEventAttend!F:F)</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>9055</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUMIF(CommonEventAttend!C:C,balance!C9,CommonEventAttend!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>9055</v>
+      </c>
+      <c r="F9" s="3">
+        <f>SUMIF(CommonEventAttend!E:E,balance!E9,CommonEventAttend!F:F)</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>9063</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUMIF(CommonEventAttend!C:C,balance!C10,CommonEventAttend!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>9063</v>
+      </c>
+      <c r="F10" s="3">
+        <f>SUMIF(CommonEventAttend!E:E,balance!E10,CommonEventAttend!F:F)</f>
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>9041</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUMIF(CommonEventAttend!C:C,balance!C11,CommonEventAttend!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>9041</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUMIF(CommonEventAttend!E:E,balance!E11,CommonEventAttend!F:F)</f>
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/CommonEventAttend.xlsx
+++ b/Assets/06.Table/CommonEventAttend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED728EE-5E71-4BE5-8DF9-C14C3E7341F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336CE594-C741-43B5-831D-FC96909742C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CommonEventAttend" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -113,6 +113,22 @@
   </si>
   <si>
     <t>초월석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무 대회 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈자리 전수권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -339,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +508,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -553,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -573,13 +589,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -593,13 +609,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -613,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -633,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -653,13 +669,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -673,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -693,16 +709,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -713,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -733,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -753,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -773,16 +789,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,13 +809,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -813,13 +829,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -833,13 +849,13 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -853,16 +869,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>9053</v>
+        <v>9044</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,13 +889,13 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>9055</v>
+        <v>9050</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -893,13 +909,13 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>9063</v>
+        <v>9057</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -913,13 +929,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>9041</v>
+        <v>9066</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -934,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAA8C00-C0E8-46A5-A651-96172375E961}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,18 +1097,18 @@
       </c>
       <c r="D8" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C8,CommonEventAttend!D:D)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>9053</v>
       </c>
       <c r="F8" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E8,CommonEventAttend!F:F)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -1104,18 +1120,18 @@
       </c>
       <c r="D9" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C9,CommonEventAttend!D:D)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>9055</v>
       </c>
       <c r="F9" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E9,CommonEventAttend!F:F)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -1127,18 +1143,18 @@
       </c>
       <c r="D10" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C10,CommonEventAttend!D:D)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>9063</v>
       </c>
       <c r="F10" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E10,CommonEventAttend!F:F)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -1150,18 +1166,50 @@
       </c>
       <c r="D11" s="3">
         <f>SUMIF(CommonEventAttend!C:C,balance!C11,CommonEventAttend!D:D)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>9041</v>
       </c>
       <c r="F11" s="3">
         <f>SUMIF(CommonEventAttend!E:E,balance!E11,CommonEventAttend!F:F)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>9057</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>9066</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CommonEventAttend.xlsx
+++ b/Assets/06.Table/CommonEventAttend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336CE594-C741-43B5-831D-FC96909742C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAFB41-1AB4-4792-884B-8ECA8DA416C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>9044</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>9050</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>9057</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>9066</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>9044</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>9050</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>9057</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>9066</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>9044</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>9050</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>9057</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>9066</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>9044</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>9050</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>9057</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>9066</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>9044</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>9050</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>9057</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>9066</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
